--- a/testdatabase.xlsx
+++ b/testdatabase.xlsx
@@ -14,45 +14,126 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
-  <si>
-    <t>ID_number</t>
-  </si>
-  <si>
-    <t>Personal_number</t>
-  </si>
-  <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>Age</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+  <si>
+    <t>SNR-nummer</t>
+  </si>
+  <si>
+    <t>Personnummer</t>
   </si>
   <si>
     <t>ASA</t>
   </si>
   <si>
-    <t>Earlier_colonscopy</t>
-  </si>
-  <si>
-    <t>Colonoscopy_reason</t>
-  </si>
-  <si>
-    <t>Bowl_prep</t>
-  </si>
-  <si>
-    <t>Full_colonoscopy</t>
-  </si>
-  <si>
-    <t>Feaces_culture</t>
-  </si>
-  <si>
-    <t>Main_diagnosis</t>
-  </si>
-  <si>
-    <t>SR045</t>
-  </si>
-  <si>
-    <t>man</t>
+    <t>Tidigare kolonoskopi</t>
+  </si>
+  <si>
+    <t>Kolonoskopiorsak</t>
+  </si>
+  <si>
+    <t>Tarmförberedelse</t>
+  </si>
+  <si>
+    <t>Full kolonoskopi</t>
+  </si>
+  <si>
+    <t>Feacesodling</t>
+  </si>
+  <si>
+    <t>Huvuddiagnos</t>
+  </si>
+  <si>
+    <t>DNA:Frisk Caekum</t>
+  </si>
+  <si>
+    <t>Odling: Frisk Caekum</t>
+  </si>
+  <si>
+    <t>DNA:Frisk Sigma</t>
+  </si>
+  <si>
+    <t>Odling: Frisk Sigma</t>
+  </si>
+  <si>
+    <t>DNA:Polyp &gt;1cm</t>
+  </si>
+  <si>
+    <t>dna_polyp_loc</t>
+  </si>
+  <si>
+    <t>DNA:Nära Polyp &gt; 1 cm</t>
+  </si>
+  <si>
+    <t>dna_close_polyp_loc</t>
+  </si>
+  <si>
+    <t>Odling:Nära Polyp &gt; 1 cm</t>
+  </si>
+  <si>
+    <t>culture_close_polyp_loc</t>
+  </si>
+  <si>
+    <t>DNA:Cancer</t>
+  </si>
+  <si>
+    <t>dna_cancer_loc</t>
+  </si>
+  <si>
+    <t>Odling: Cancer</t>
+  </si>
+  <si>
+    <t>culture_cancer_loc</t>
+  </si>
+  <si>
+    <t>DNA:Nära Cancer</t>
+  </si>
+  <si>
+    <t>dna_close_cancer_loc</t>
+  </si>
+  <si>
+    <t>Odling:Nära Cancer</t>
+  </si>
+  <si>
+    <t>culture_close_cancer_loc</t>
+  </si>
+  <si>
+    <t>DNA:Nära Divertikel</t>
+  </si>
+  <si>
+    <t>dna_close_diverticle_loc</t>
+  </si>
+  <si>
+    <t>Odling:Nära Divertikel</t>
+  </si>
+  <si>
+    <t>culture_close_diverticle_loc</t>
+  </si>
+  <si>
+    <t>DNA:IBD (inflammation)</t>
+  </si>
+  <si>
+    <t>dna_ibd_loc</t>
+  </si>
+  <si>
+    <t>Odling:IBD (inflammation)</t>
+  </si>
+  <si>
+    <t>culture_ibd_loc</t>
+  </si>
+  <si>
+    <t>DNA:Nära IBD</t>
+  </si>
+  <si>
+    <t>dna_close_ibd_loc</t>
+  </si>
+  <si>
+    <t>ODL:Nära IBD</t>
+  </si>
+  <si>
+    <t>culture_close_ibd_loc</t>
+  </si>
+  <si>
+    <t>SR058</t>
   </si>
   <si>
     <t>A</t>
@@ -64,13 +145,7 @@
     <t>healthy</t>
   </si>
   <si>
-    <t>SR088</t>
-  </si>
-  <si>
-    <t>SR066</t>
-  </si>
-  <si>
-    <t>Ingen</t>
+    <t>C</t>
   </si>
 </sst>
 </file>
@@ -419,7 +494,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:AM2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,7 +502,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:39">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -461,152 +536,168 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:39">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="B2" t="n">
         <v>198512121453</v>
       </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="n">
-        <v>30</v>
-      </c>
-      <c r="E2" t="n">
+      <c r="C2" t="n">
         <v>1</v>
       </c>
-      <c r="F2" t="s"/>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
+      <c r="D2" t="s"/>
+      <c r="E2" t="s"/>
+      <c r="F2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" t="s"/>
       <c r="I2" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="J2" t="s"/>
-      <c r="K2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" t="n">
-        <v>198512121453</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="n">
-        <v>30</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" t="s"/>
-      <c r="G3" t="s"/>
-      <c r="H3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" t="s"/>
-      <c r="K3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" t="n">
-        <v>198512121453</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="n">
-        <v>30</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s"/>
-      <c r="G4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" t="s"/>
-      <c r="K4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" t="n">
-        <v>198512121453</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" t="n">
-        <v>30</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s"/>
-      <c r="G5" t="s"/>
-      <c r="H5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" t="s"/>
-      <c r="K5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" t="n">
-        <v>198512121453</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" t="n">
-        <v>30</v>
-      </c>
-      <c r="E6" t="n">
-        <v>4</v>
-      </c>
-      <c r="F6" t="s"/>
-      <c r="G6" t="s"/>
-      <c r="H6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" t="s"/>
-      <c r="K6" t="s">
-        <v>15</v>
+      <c r="K2" t="s"/>
+      <c r="L2" t="s"/>
+      <c r="M2" t="s"/>
+      <c r="N2" t="s"/>
+      <c r="O2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s">
+        <v>43</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s">
+        <v>43</v>
+      </c>
+      <c r="V2" t="s"/>
+      <c r="W2" t="s">
+        <v>43</v>
+      </c>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z2" t="s"/>
+      <c r="AA2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB2" t="s"/>
+      <c r="AC2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD2" t="s"/>
+      <c r="AE2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF2" t="s"/>
+      <c r="AG2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH2" t="s"/>
+      <c r="AI2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ2" t="s"/>
+      <c r="AK2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL2" t="s"/>
+      <c r="AM2" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/testdatabase.xlsx
+++ b/testdatabase.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="45">
   <si>
     <t>SNR-nummer</t>
   </si>
@@ -146,6 +146,9 @@
   </si>
   <si>
     <t>C</t>
+  </si>
+  <si>
+    <t>SR065</t>
   </si>
 </sst>
 </file>
@@ -494,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM2"/>
+  <dimension ref="A1:AM3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -700,6 +703,85 @@
         <v>43</v>
       </c>
     </row>
+    <row r="3" spans="1:39">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" t="n">
+        <v>195410196223</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s"/>
+      <c r="E3" t="s"/>
+      <c r="F3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" t="s"/>
+      <c r="I3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" t="s"/>
+      <c r="K3" t="s"/>
+      <c r="L3" t="s"/>
+      <c r="M3" t="s"/>
+      <c r="N3" t="s"/>
+      <c r="O3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s">
+        <v>43</v>
+      </c>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s">
+        <v>43</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s">
+        <v>43</v>
+      </c>
+      <c r="V3" t="s"/>
+      <c r="W3" t="s">
+        <v>43</v>
+      </c>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z3" t="s"/>
+      <c r="AA3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB3" t="s"/>
+      <c r="AC3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD3" t="s"/>
+      <c r="AE3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF3" t="s"/>
+      <c r="AG3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH3" t="s"/>
+      <c r="AI3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ3" t="s"/>
+      <c r="AK3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL3" t="s"/>
+      <c r="AM3" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
